--- a/executive_board/2024_07_next_executive_board.xlsx
+++ b/executive_board/2024_07_next_executive_board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2024\executive_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\executive_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE29A9-1282-4FE7-B979-007A3A2BC40E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD9902-877B-48E0-AC57-7A5B1A9313B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{76F7C32B-939B-4119-B411-60C078B28972}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76F7C32B-939B-4119-B411-60C078B28972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
